--- a/2020/February/Others/House Rent Form.xlsx
+++ b/2020/February/Others/House Rent Form.xlsx
@@ -379,20 +379,36 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -412,39 +428,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,7 +690,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -895,7 +895,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1995,7 +1995,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2441,7 +2441,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2512,7 +2512,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2586,7 +2586,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2657,7 +2657,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2891,7 +2891,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3094,7 +3094,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4192,7 +4192,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4636,7 +4636,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4707,7 +4707,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4781,7 +4781,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4852,7 +4852,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5086,7 +5086,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5291,7 +5291,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6391,7 +6391,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6837,7 +6837,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6908,7 +6908,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6982,7 +6982,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7053,7 +7053,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7516,7 +7516,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7526,8 +7526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="A1:O41"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7565,56 +7565,56 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="27"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="18.75">
       <c r="A4" s="6"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="28"/>
+      <c r="M4" s="46"/>
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14">
@@ -7635,86 +7635,86 @@
     </row>
     <row r="6" spans="1:14" ht="25.35" customHeight="1">
       <c r="A6" s="9"/>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="25.35" customHeight="1">
       <c r="A7" s="9"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="40" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="44" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="41">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36">
         <v>4150</v>
       </c>
-      <c r="M7" s="41"/>
+      <c r="M7" s="36"/>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="25.35" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="42" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="25.35" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="43" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
@@ -7735,42 +7735,42 @@
     </row>
     <row r="11" spans="1:14" ht="21.6" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="38"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="21.6" customHeight="1">
       <c r="A12" s="9"/>
-      <c r="B12" s="11"/>
+      <c r="B12" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="44"/>
+      <c r="H12" s="35"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="21.6" customHeight="1">
@@ -7788,9 +7788,9 @@
       <c r="J13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14">
@@ -7827,24 +7827,24 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="22"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="46" t="s">
+      <c r="L16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="46"/>
+      <c r="M16" s="30"/>
       <c r="N16" s="23"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1">
@@ -7899,56 +7899,56 @@
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="26" t="s">
+      <c r="L23" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="27"/>
+      <c r="M23" s="44"/>
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
       <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" ht="18.75">
       <c r="A25" s="6"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="28" t="s">
+      <c r="L25" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="28"/>
+      <c r="M25" s="46"/>
       <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:14">
@@ -7969,86 +7969,86 @@
     </row>
     <row r="27" spans="1:14" ht="21.6" customHeight="1">
       <c r="A27" s="9"/>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="8"/>
     </row>
     <row r="28" spans="1:14" ht="21.6" customHeight="1">
       <c r="A28" s="9"/>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="40" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="44" t="s">
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="41">
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="36">
         <v>4150</v>
       </c>
-      <c r="M28" s="41"/>
+      <c r="M28" s="36"/>
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14" ht="21.6" customHeight="1">
       <c r="A29" s="9"/>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="30" t="s">
+      <c r="C29" s="26"/>
+      <c r="D29" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" ht="21.6" customHeight="1">
       <c r="A30" s="9"/>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39" t="s">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14">
@@ -8069,42 +8069,42 @@
     </row>
     <row r="32" spans="1:14" ht="21.6" customHeight="1">
       <c r="A32" s="9"/>
-      <c r="B32" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="38" t="s">
+      <c r="J32" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K32" s="38"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" ht="21.6" customHeight="1">
       <c r="A33" s="9"/>
-      <c r="B33" s="11"/>
+      <c r="B33" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="C33" s="11"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="48" t="s">
+      <c r="G33" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
       <c r="J33" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" ht="21.6" customHeight="1">
@@ -8122,9 +8122,9 @@
       <c r="J34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
       <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14">
@@ -8161,24 +8161,24 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="14"/>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="45" t="s">
+      <c r="F37" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
       <c r="K37" s="18"/>
-      <c r="L37" s="46" t="s">
+      <c r="L37" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M37" s="46"/>
+      <c r="M37" s="30"/>
       <c r="N37" s="16"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" thickBot="1">
@@ -8203,21 +8203,28 @@
   </sheetData>
   <autoFilter ref="N38:N39"/>
   <mergeCells count="51">
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:M30"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="I7:K7"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="I28:K28"/>
@@ -8232,28 +8239,21 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:M30"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G33:I33"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>

--- a/2020/February/Others/House Rent Form.xlsx
+++ b/2020/February/Others/House Rent Form.xlsx
@@ -379,36 +379,20 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -428,23 +412,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,7 +690,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -895,7 +895,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1995,7 +1995,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2441,7 +2441,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2512,7 +2512,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2586,7 +2586,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2657,7 +2657,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2891,7 +2891,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3094,7 +3094,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4192,7 +4192,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4636,7 +4636,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4707,7 +4707,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4781,7 +4781,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4852,7 +4852,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5086,7 +5086,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5291,7 +5291,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6391,7 +6391,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6837,7 +6837,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6908,7 +6908,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6982,7 +6982,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7053,7 +7053,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7516,7 +7516,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7527,7 +7527,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7565,56 +7565,56 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="44"/>
+      <c r="M2" s="27"/>
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="18.75">
       <c r="A4" s="6"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="46"/>
+      <c r="M4" s="28"/>
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14">
@@ -7635,86 +7635,86 @@
     </row>
     <row r="6" spans="1:14" ht="25.35" customHeight="1">
       <c r="A6" s="9"/>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="25.35" customHeight="1">
       <c r="A7" s="9"/>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="34" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36">
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="41">
         <v>4150</v>
       </c>
-      <c r="M7" s="36"/>
+      <c r="M7" s="41"/>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="25.35" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="47" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="25.35" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="48" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
@@ -7735,20 +7735,20 @@
     </row>
     <row r="11" spans="1:14" ht="21.6" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="21.6" customHeight="1">
@@ -7757,20 +7757,20 @@
         <v>19</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="35"/>
+      <c r="H12" s="44"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="21.6" customHeight="1">
@@ -7788,9 +7788,9 @@
       <c r="J13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14">
@@ -7827,24 +7827,24 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="22"/>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="30" t="s">
+      <c r="L16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="30"/>
+      <c r="M16" s="46"/>
       <c r="N16" s="23"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1">
@@ -7899,56 +7899,56 @@
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="43" t="s">
+      <c r="L23" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="44"/>
+      <c r="M23" s="27"/>
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
       <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" ht="18.75">
       <c r="A25" s="6"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="46" t="s">
+      <c r="L25" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="46"/>
+      <c r="M25" s="28"/>
       <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:14">
@@ -7969,86 +7969,86 @@
     </row>
     <row r="27" spans="1:14" ht="21.6" customHeight="1">
       <c r="A27" s="9"/>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="8"/>
     </row>
     <row r="28" spans="1:14" ht="21.6" customHeight="1">
       <c r="A28" s="9"/>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="34" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="35" t="s">
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="36">
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="41">
         <v>4150</v>
       </c>
-      <c r="M28" s="36"/>
+      <c r="M28" s="41"/>
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14" ht="21.6" customHeight="1">
       <c r="A29" s="9"/>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27" t="s">
+      <c r="C29" s="38"/>
+      <c r="D29" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" ht="21.6" customHeight="1">
       <c r="A30" s="9"/>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="28" t="s">
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14">
@@ -8069,20 +8069,20 @@
     </row>
     <row r="32" spans="1:14" ht="21.6" customHeight="1">
       <c r="A32" s="9"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="26" t="s">
+      <c r="J32" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="K32" s="26"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" ht="21.6" customHeight="1">
@@ -8091,20 +8091,20 @@
         <v>19</v>
       </c>
       <c r="C33" s="11"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
       <c r="J33" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" ht="21.6" customHeight="1">
@@ -8122,9 +8122,9 @@
       <c r="J34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
       <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14">
@@ -8161,24 +8161,24 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="14"/>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="29" t="s">
+      <c r="F37" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
       <c r="K37" s="18"/>
-      <c r="L37" s="30" t="s">
+      <c r="L37" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="M37" s="30"/>
+      <c r="M37" s="46"/>
       <c r="N37" s="16"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" thickBot="1">
@@ -8203,28 +8203,21 @@
   </sheetData>
   <autoFilter ref="N38:N39"/>
   <mergeCells count="51">
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:M30"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="I28:K28"/>
@@ -8239,21 +8232,28 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:M30"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>

--- a/2020/February/Others/House Rent Form.xlsx
+++ b/2020/February/Others/House Rent Form.xlsx
@@ -379,20 +379,36 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -412,39 +428,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,7 +690,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -895,7 +895,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1995,7 +1995,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2441,7 +2441,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2512,7 +2512,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2586,7 +2586,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2657,7 +2657,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2891,7 +2891,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3094,7 +3094,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4192,7 +4192,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4636,7 +4636,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4707,7 +4707,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4781,7 +4781,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4852,7 +4852,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5086,7 +5086,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5291,7 +5291,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6391,7 +6391,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6837,7 +6837,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6908,7 +6908,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6982,7 +6982,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7053,7 +7053,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7516,7 +7516,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7526,8 +7526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N37" sqref="A1:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7565,56 +7565,56 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="27"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="18.75">
       <c r="A4" s="6"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="28"/>
+      <c r="M4" s="46"/>
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14">
@@ -7635,86 +7635,86 @@
     </row>
     <row r="6" spans="1:14" ht="25.35" customHeight="1">
       <c r="A6" s="9"/>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="25.35" customHeight="1">
       <c r="A7" s="9"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="40" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="44" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="41">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36">
         <v>4150</v>
       </c>
-      <c r="M7" s="41"/>
+      <c r="M7" s="36"/>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="25.35" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="42" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="25.35" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="43" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14">
@@ -7735,20 +7735,20 @@
     </row>
     <row r="11" spans="1:14" ht="21.6" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="21.6" customHeight="1">
@@ -7757,20 +7757,20 @@
         <v>19</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="44"/>
+      <c r="H12" s="35"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="21.6" customHeight="1">
@@ -7788,9 +7788,9 @@
       <c r="J13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14">
@@ -7827,24 +7827,24 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="22"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="46" t="s">
+      <c r="L16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="46"/>
+      <c r="M16" s="30"/>
       <c r="N16" s="23"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1">
@@ -7899,56 +7899,56 @@
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="26" t="s">
+      <c r="L23" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="27"/>
+      <c r="M23" s="44"/>
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
       <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" ht="18.75">
       <c r="A25" s="6"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="28" t="s">
+      <c r="L25" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="28"/>
+      <c r="M25" s="46"/>
       <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:14">
@@ -7969,86 +7969,86 @@
     </row>
     <row r="27" spans="1:14" ht="21.6" customHeight="1">
       <c r="A27" s="9"/>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="8"/>
     </row>
     <row r="28" spans="1:14" ht="21.6" customHeight="1">
       <c r="A28" s="9"/>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="40" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="44" t="s">
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="41">
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="36">
         <v>4150</v>
       </c>
-      <c r="M28" s="41"/>
+      <c r="M28" s="36"/>
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14" ht="21.6" customHeight="1">
       <c r="A29" s="9"/>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="30" t="s">
+      <c r="C29" s="26"/>
+      <c r="D29" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" ht="21.6" customHeight="1">
       <c r="A30" s="9"/>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39" t="s">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14">
@@ -8069,20 +8069,20 @@
     </row>
     <row r="32" spans="1:14" ht="21.6" customHeight="1">
       <c r="A32" s="9"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="38" t="s">
+      <c r="J32" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K32" s="38"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" ht="21.6" customHeight="1">
@@ -8091,20 +8091,20 @@
         <v>19</v>
       </c>
       <c r="C33" s="11"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="48" t="s">
+      <c r="G33" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
       <c r="J33" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" ht="21.6" customHeight="1">
@@ -8122,9 +8122,9 @@
       <c r="J34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
       <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14">
@@ -8161,25 +8161,27 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="14"/>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="45" t="s">
+      <c r="F37" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
       <c r="K37" s="18"/>
-      <c r="L37" s="46" t="s">
+      <c r="L37" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M37" s="46"/>
-      <c r="N37" s="16"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" thickBot="1">
       <c r="A38" s="19"/>
@@ -8203,21 +8205,28 @@
   </sheetData>
   <autoFilter ref="N38:N39"/>
   <mergeCells count="51">
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:M30"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="I7:K7"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="I28:K28"/>
@@ -8232,28 +8241,21 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:M30"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G33:I33"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
